--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.6</t>
+    <t>1.4.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T11:22:00+00:00</t>
+    <t>2025-04-18T16:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.10</t>
+    <t>1.4.15</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T16:44:16+00:00</t>
+    <t>2025-04-30T18:27:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.15</t>
+    <t>1.5.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T18:27:21+00:00</t>
+    <t>2025-05-08T08:24:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:24:02+00:00</t>
+    <t>2025-05-08T08:54:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.11</t>
+    <t>1.5.16</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:54:46+00:00</t>
+    <t>2025-05-12T19:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.16</t>
+    <t>1.5.23</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T19:54:30+00:00</t>
+    <t>2025-05-23T16:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -695,7 +695,10 @@
     <t>1252: source value based on INSTITUTION - NPI (4-41.99)</t>
   </si>
   <si>
-    <t>Dim.Institution.NPI,Dim.Institution.NPI,Dim.InstitutionTimeZone.NPI,NDim.MVIInstitution.NPI</t>
+    <t>Dim.Institution.NPI
+Dim.Institution.NPI
+Dim.InstitutionTimeZone.NPI
+NDim.MVIInstitution.NPI</t>
   </si>
   <si>
     <t>CX.1 / EI.1</t>
@@ -885,7 +888,12 @@
     <t>1251: source value based on INSTITUTION - NAME (4-.01)</t>
   </si>
   <si>
-    <t>Dim.AutoDiscontinuedRule.InstitutionName,Dim.Institution.InstitutionName,Dim.Institution.InstitutionName,Dim.InstitutionTimeZone.Institution,Dim.RequestService.IFCRoutingInstitution,NDim.MVIInstitution.InstitutionName</t>
+    <t>Dim.AutoDiscontinuedRule.InstitutionName
+Dim.Institution.InstitutionName
+Dim.Institution.InstitutionName
+Dim.InstitutionTimeZone.Institution
+Dim.RequestService.IFCRoutingInstitution
+NDim.MVIInstitution.InstitutionName</t>
   </si>
   <si>
     <t>XON.1</t>
@@ -916,7 +924,10 @@
     <t>1255: source value based on INSTITUTION - SHORT NAME (4-.05)</t>
   </si>
   <si>
-    <t>Dim.Institution.InstitutionShortName,Dim.Institution.InstitutionShortName,Dim.InstitutionTimeZone.InstitutionShortName,NDim.MVIInstitution.InstitutionShortName</t>
+    <t>Dim.Institution.InstitutionShortName
+Dim.Institution.InstitutionShortName
+Dim.InstitutionTimeZone.InstitutionShortName
+NDim.MVIInstitution.InstitutionShortName</t>
   </si>
   <si>
     <t>Organization.telecom</t>
@@ -1442,7 +1453,10 @@
     <t>1259: source value based on INSTITUTION - STREET ADDR. 2 (4-1.02)</t>
   </si>
   <si>
-    <t>Dim.Institution.StreetAddress2,Dim.Institution.StreetAddress2,Dim.InstitutionTimeZone.StreetAddress2,NDim.MVIInstitution.StreetAddress2</t>
+    <t>Dim.Institution.StreetAddress2
+Dim.Institution.StreetAddress2
+Dim.InstitutionTimeZone.StreetAddress2
+NDim.MVIInstitution.StreetAddress2</t>
   </si>
   <si>
     <t>Organization.address:va-physical.city</t>
@@ -1451,7 +1465,10 @@
     <t>1260: source value based on INSTITUTION - CITY (4-1.03)</t>
   </si>
   <si>
-    <t>Dim.Institution.City,Dim.Institution.City,Dim.InstitutionTimeZone.City,NDim.MVIInstitution.City</t>
+    <t>Dim.Institution.City
+Dim.Institution.City
+Dim.InstitutionTimeZone.City
+NDim.MVIInstitution.City</t>
   </si>
   <si>
     <t>Organization.address:va-physical.district</t>
@@ -1460,7 +1477,9 @@
     <t>1261: source value based on INSTITUTION - DISTRICT (4-.03)</t>
   </si>
   <si>
-    <t>Dim.Institution.MedicalDistrict,Dim.Institution.MedicalDistrict,NDim.MVIInstitution.MedicalDistrict</t>
+    <t>Dim.Institution.MedicalDistrict
+Dim.Institution.MedicalDistrict
+NDim.MVIInstitution.MedicalDistrict</t>
   </si>
   <si>
     <t>Organization.address:va-physical.state</t>
@@ -1469,8 +1488,13 @@
     <t>1262: source value based on INSTITUTION - STATE &gt; STATE - ABBREVIATION (4-.02 &gt; 5-1)</t>
   </si>
   <si>
-    <t>Dim.Institution.StateIEN,Dim.InstitutionTimeZone.StateIEN,Dim.InstitutionTimeZone.StateSID,NDim.MVIInstitution.MVIStateIEN
-Dim.State.StateAbbrev,Dim.State.StateAbbrev,NDim.MVIState.StateAbbrev</t>
+    <t>Dim.Institution.StateIEN
+Dim.InstitutionTimeZone.StateIEN
+Dim.InstitutionTimeZone.StateSID
+NDim.MVIInstitution.MVIStateIEN
+Dim.State.StateAbbrev
+Dim.State.StateAbbrev
+NDim.MVIState.StateAbbrev</t>
   </si>
   <si>
     <t>Organization.address:va-physical.postalCode</t>
@@ -1479,7 +1503,10 @@
     <t>1263: source value based on INSTITUTION - ZIP (4-1.04)</t>
   </si>
   <si>
-    <t>Dim.Institution.Zip,Dim.Institution.Zip,Dim.InstitutionTimeZone.Zip,NDim.MVIInstitution.Zip</t>
+    <t>Dim.Institution.Zip
+Dim.Institution.Zip
+Dim.InstitutionTimeZone.Zip
+NDim.MVIInstitution.Zip</t>
   </si>
   <si>
     <t>Organization.address:va-physical.country</t>
@@ -1488,7 +1515,8 @@
     <t>1264: source value based on INSTITUTION - COUNTRY &gt; COUNTRY CODE - CODE (4-801 &gt; 779.004-.01)</t>
   </si>
   <si>
-    <t>Dim.Country.CountryCode,NDim.MVICountryCode.CountryCode</t>
+    <t>Dim.Country.CountryCode
+NDim.MVICountryCode.CountryCode</t>
   </si>
   <si>
     <t>Organization.address:va-physical.period</t>
@@ -1548,7 +1576,8 @@
     <t>1272: source value based on INSTITUTION - STATE (MAILING) (4-4.04)</t>
   </si>
   <si>
-    <t>Dim.InstitutionTimeZone.MailingStateIEN,Dim.InstitutionTimeZone.MailingStateSID</t>
+    <t>Dim.InstitutionTimeZone.MailingStateIEN
+Dim.InstitutionTimeZone.MailingStateSID</t>
   </si>
   <si>
     <t>Organization.address:va-postal.postalCode</t>
@@ -2286,7 +2315,7 @@
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="82.7265625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="176.78515625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="38.6796875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="92.07421875" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="87.9765625" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="187.0625" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.23</t>
+    <t>1.5.30</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-23T16:28:56+00:00</t>
+    <t>2025-05-25T09:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.30</t>
+    <t>1.6.49</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-25T09:23:19+00:00</t>
+    <t>2025-06-13T16:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
